--- a/Seed5_db/emotion_label_and_stimuli_order.xlsx
+++ b/Seed5_db/emotion_label_and_stimuli_order.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosito/Documents/GitHub/CP_EEG/Seed5_db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1540AE-BBDD-42C5-9F22-D8DC1B5A4D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA469D26-F270-5140-AE53-70FD585A6724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3640" yWindow="1220" windowWidth="29040" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3800" yWindow="1960" windowWidth="40280" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="35">
   <si>
     <t>Happy</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -65,6 +75,81 @@
   <si>
     <t>Session 3</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>model1</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>30-132</t>
+  </si>
+  <si>
+    <t>140-200</t>
+  </si>
+  <si>
+    <t>model1.1</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>modle1</t>
+  </si>
+  <si>
+    <t>node1</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>node66</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>X_train</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>output = 5</t>
+  </si>
+  <si>
+    <t>y_train (MSE)</t>
+  </si>
+  <si>
+    <t>y_train (Cross entropy)</t>
+  </si>
+  <si>
+    <t>opal</t>
+  </si>
+  <si>
+    <t>preprocessing + bandpass signal</t>
+  </si>
+  <si>
+    <t>poon</t>
+  </si>
+  <si>
+    <t>cnn + lstm</t>
+  </si>
+  <si>
+    <t>1 model</t>
+  </si>
+  <si>
+    <t>ball</t>
+  </si>
+  <si>
+    <t>bandpass sincnet</t>
   </si>
 </sst>
 </file>
@@ -75,7 +160,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -83,7 +168,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -91,7 +176,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -99,7 +184,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -108,34 +193,34 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +245,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -219,7 +322,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -238,37 +341,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="差" xfId="2" builtinId="27"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
-    <cellStyle name="检查单元格" xfId="4" builtinId="23"/>
-    <cellStyle name="适中" xfId="3" builtinId="28"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -548,69 +669,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.75" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>7</v>
+      </c>
+      <c r="J11">
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <v>11</v>
+      </c>
+      <c r="N11">
+        <v>12</v>
+      </c>
+      <c r="O11">
+        <v>13</v>
+      </c>
+      <c r="P11">
+        <v>14</v>
+      </c>
+      <c r="Q11">
+        <v>15</v>
+      </c>
       <c r="S11" s="5"/>
-      <c r="T11" s="11"/>
+      <c r="T11" s="9"/>
       <c r="U11" s="5"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
@@ -662,11 +836,11 @@
         <v>4</v>
       </c>
       <c r="S12" s="5"/>
-      <c r="T12" s="12"/>
+      <c r="T12" s="10"/>
       <c r="U12" s="5"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
       <c r="B13" t="s">
         <v>6</v>
       </c>
@@ -716,11 +890,11 @@
         <v>4</v>
       </c>
       <c r="S13" s="5"/>
-      <c r="T13" s="13"/>
+      <c r="T13" s="11"/>
       <c r="U13" s="5"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
       <c r="B14" t="s">
         <v>9</v>
       </c>
@@ -773,29 +947,62 @@
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
     </row>
-    <row r="18" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>330000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
       <c r="O18" s="4"/>
     </row>
-    <row r="20" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>330000</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>330000</v>
+      </c>
       <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <f>SUM(B18:B20)</f>
+        <v>990000</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O22" s="4"/>
     </row>
-    <row r="23" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O23" s="4"/>
     </row>
   </sheetData>
@@ -807,4 +1014,355 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E2BB13-13C9-1448-8B6B-44ABCD7830E5}">
+  <dimension ref="A3:K33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>80</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3" s="19"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>0.36</v>
+      </c>
+      <c r="K8">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G5:K5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>